--- a/average_densities.xlsx
+++ b/average_densities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,70 +424,78 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>capture_date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>variety_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>field_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>variety_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>farm_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Color Break</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Cut</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Partial Bloom</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Pea</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Shoot</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-29T12:08:15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
         <v>44</v>
       </c>
-      <c r="B2" t="n">
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-01-31T20:43:34.889925</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>7.095978260869566</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.5034782608695653</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.88304347826087</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>19.47163043478261</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>39.44630434782609</v>
       </c>
     </row>

--- a/average_densities.xlsx
+++ b/average_densities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,21 @@
           <t>Shoot</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>variety_name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>area_msqr</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,6 +512,19 @@
       </c>
       <c r="I2" t="n">
         <v>39.44630434782609</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Ever Red</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>4378</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
       </c>
     </row>
   </sheetData>
